--- a/income.xlsx
+++ b/income.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-04-17</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Digitalmarketing</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5677</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,39 +493,135 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>xtre6</t>
+          <t>dgfy</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sujan</t>
+          <t>Ram Chaudhary</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Digitalmarketing</t>
+          <t>Developer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5688</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>esewa bill no 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>samir</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Debops</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>dgfy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>fg54</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Asmin Dhakal</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-04-17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Developer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>fg54</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nabil 3</t>
         </is>
       </c>
     </row>
